--- a/data - 복사본.xlsx
+++ b/data - 복사본.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="캐릭터" sheetId="1" r:id="rId1"/>
-    <sheet name="퍼스널리티" sheetId="2" r:id="rId2"/>
-    <sheet name="보너스" sheetId="3" r:id="rId3"/>
-    <sheet name="던전" sheetId="4" r:id="rId4"/>
-    <sheet name="설명" sheetId="5" r:id="rId5"/>
-    <sheet name="기타번역" sheetId="6" r:id="rId6"/>
-    <sheet name="캐릭번역" sheetId="7" r:id="rId7"/>
-    <sheet name="특성번역" sheetId="8" r:id="rId8"/>
+    <sheet name="버디" sheetId="2" r:id="rId2"/>
+    <sheet name="퍼스널리티" sheetId="3" r:id="rId3"/>
+    <sheet name="보너스" sheetId="4" r:id="rId4"/>
+    <sheet name="던전" sheetId="5" r:id="rId5"/>
+    <sheet name="설명" sheetId="6" r:id="rId6"/>
+    <sheet name="기타번역" sheetId="7" r:id="rId7"/>
+    <sheet name="캐릭번역" sheetId="8" r:id="rId8"/>
+    <sheet name="특성번역" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">보너스!$A$1:$D$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">보너스!$A$1:$D$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">캐릭터!$A$1:$Q$288</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="1595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3963" uniqueCount="1637">
   <si>
     <t>아이디</t>
   </si>
@@ -1361,6 +1362,51 @@
     <t>미야비노카미</t>
   </si>
   <si>
+    <t>미나르카</t>
+  </si>
+  <si>
+    <t>101010131</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>네메시스</t>
+  </si>
+  <si>
+    <t>애쉬티어</t>
+  </si>
+  <si>
+    <t>101060161</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>버디 코드</t>
+  </si>
+  <si>
+    <t>선행 캐릭터</t>
+  </si>
+  <si>
+    <t>테트라</t>
+  </si>
+  <si>
+    <t>코로보</t>
+  </si>
+  <si>
+    <t>올챙이맨더</t>
+  </si>
+  <si>
+    <t>우쿨렐레 님</t>
+  </si>
+  <si>
+    <t>몰디</t>
+  </si>
+  <si>
     <t>ES 여부</t>
   </si>
   <si>
@@ -1376,7 +1422,7 @@
     <t>레이븐</t>
   </si>
   <si>
-    <t>지팡이,가면</t>
+    <t>지팡이,가면,기억상실</t>
   </si>
   <si>
     <t>지팡이,애묘가,성직자</t>
@@ -1394,6 +1440,9 @@
     <t>지팡이,안경,과학자,채집</t>
   </si>
   <si>
+    <t>지팡이,용</t>
+  </si>
+  <si>
     <t>지팡이,안경,IDA스쿨,로스트 랩</t>
   </si>
   <si>
@@ -1418,6 +1467,9 @@
     <t>지팡이,용궁</t>
   </si>
   <si>
+    <t>지팡이,용궁,기억상실</t>
+  </si>
+  <si>
     <t>노놀드</t>
   </si>
   <si>
@@ -1433,7 +1485,7 @@
     <t>연옥계는 군상 클리어시</t>
   </si>
   <si>
-    <t>지팡이,서방</t>
+    <t>지팡이,서방,기억상실</t>
   </si>
   <si>
     <t>지팡이,대식가</t>
@@ -1463,21 +1515,24 @@
     <t>창,미글랜스 왕궁,왕족</t>
   </si>
   <si>
+    <t>검,미글랜스 왕궁,기억상실</t>
+  </si>
+  <si>
+    <t>뮤론</t>
+  </si>
+  <si>
+    <t>검,성직자</t>
+  </si>
+  <si>
+    <t>검,애묘가,미술</t>
+  </si>
+  <si>
+    <t>검,미식,미술,왕족,독서가</t>
+  </si>
+  <si>
     <t>검,미글랜스 왕궁</t>
   </si>
   <si>
-    <t>뮤론</t>
-  </si>
-  <si>
-    <t>검,성직자</t>
-  </si>
-  <si>
-    <t>검,애묘가,미술</t>
-  </si>
-  <si>
-    <t>검,미식,미술,왕족,독서가</t>
-  </si>
-  <si>
     <t>검,성직자,단것 애호가,서방</t>
   </si>
   <si>
@@ -1508,7 +1563,7 @@
     <t>활,동방,가면,왕족</t>
   </si>
   <si>
-    <t>도,애묘가</t>
+    <t>도,애묘가,기억상실</t>
   </si>
   <si>
     <t>애묘가는 AS 획득 시에만</t>
@@ -1619,7 +1674,7 @@
     <t>창,안경,COA</t>
   </si>
   <si>
-    <t>창,단것 애호가</t>
+    <t>창,단것 애호가,용</t>
   </si>
   <si>
     <t>창,음유시인,서방</t>
@@ -1652,7 +1707,10 @@
     <t>라비나</t>
   </si>
   <si>
-    <t>활,IDA스쿨,왕족,독서가</t>
+    <t>활,IDA스쿨,왕족,독서가,용</t>
+  </si>
+  <si>
+    <t>용은 ES 획득 시</t>
   </si>
   <si>
     <t>활,동방,요리</t>
@@ -1670,6 +1728,9 @@
     <t>활,음유시인,북방</t>
   </si>
   <si>
+    <t>활,기억상실</t>
+  </si>
+  <si>
     <t>링리</t>
   </si>
   <si>
@@ -1778,7 +1839,7 @@
     <t>검,안경,가면,마음의 괴도단,총</t>
   </si>
   <si>
-    <t>검,마음의 괴도단</t>
+    <t>검,마음의 괴도단,기억상실</t>
   </si>
   <si>
     <t>검,마수,명계의 부름,왕족</t>
@@ -1799,7 +1860,7 @@
     <t>지팡이,애묘가,요리</t>
   </si>
   <si>
-    <t>검,주인공,천계의 인도,채집</t>
+    <t>검,주인공,천계의 인도,채집,용</t>
   </si>
   <si>
     <t>도,동방,천계의 인도</t>
@@ -1826,6 +1887,12 @@
     <t>창,동방,왕족</t>
   </si>
   <si>
+    <t>검,대식가</t>
+  </si>
+  <si>
+    <t>안경,권갑,총,과학자</t>
+  </si>
+  <si>
     <t>보너스타입 (천명 or 배수)</t>
   </si>
   <si>
@@ -2495,7 +2562,7 @@
     <t>地</t>
   </si>
   <si>
-    <t>루나틱/무속성</t>
+    <t>루나틱/무속성/기타</t>
   </si>
   <si>
     <t>Etc.</t>
@@ -2714,9 +2781,6 @@
     <t>パーソナリティ</t>
   </si>
   <si>
-    <t>이름</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -3590,7 +3654,7 @@
     <t>オルレイア</t>
   </si>
   <si>
-    <t>Mammy</t>
+    <t>Milla</t>
   </si>
   <si>
     <t>マミー</t>
@@ -4499,6 +4563,69 @@
     <t>Gotoku Cat</t>
   </si>
   <si>
+    <t>五徳猫</t>
+  </si>
+  <si>
+    <t>Tsukiha (Alter)</t>
+  </si>
+  <si>
+    <t>花咲の姫君ツキハ</t>
+  </si>
+  <si>
+    <t>Miyabinokami</t>
+  </si>
+  <si>
+    <t>ミヤビノカミ</t>
+  </si>
+  <si>
+    <t>Ashtear</t>
+  </si>
+  <si>
+    <t>アシュティア</t>
+  </si>
+  <si>
+    <t>Minalca</t>
+  </si>
+  <si>
+    <t>ミナルカ</t>
+  </si>
+  <si>
+    <t>Tetra</t>
+  </si>
+  <si>
+    <t>テトラ</t>
+  </si>
+  <si>
+    <t>Minimander</t>
+  </si>
+  <si>
+    <t>オタマンダー</t>
+  </si>
+  <si>
+    <t>Moldi</t>
+  </si>
+  <si>
+    <t>モルディ</t>
+  </si>
+  <si>
+    <t>Corobo</t>
+  </si>
+  <si>
+    <t>コロボ</t>
+  </si>
+  <si>
+    <t>Lord Ukulele</t>
+  </si>
+  <si>
+    <t>ウクレレ様</t>
+  </si>
+  <si>
+    <t>Nemesis</t>
+  </si>
+  <si>
+    <t>ネメシス</t>
+  </si>
+  <si>
     <t>장비</t>
   </si>
   <si>
@@ -4799,92 +4926,33 @@
     <t>COA</t>
   </si>
   <si>
-    <t>Tsukiha (Alter)</t>
+    <t>기억상실</t>
+  </si>
+  <si>
+    <t>용</t>
+  </si>
+  <si>
+    <t>Dragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ミヤビノカミ</t>
-  </si>
-  <si>
-    <t>Miyabinokami</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>五</t>
-    </r>
+    <t>Amnesia</t>
+  </si>
+  <si>
+    <t>記憶喪失</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>徳</t>
+      <t>竜</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>猫</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>花</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>咲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>姫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>君ツキハ</t>
-    </r>
-  </si>
-  <si>
-    <t>경전록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4933,8 +5001,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5277,11 +5345,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S288"/>
+  <dimension ref="A1:S291"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I283" sqref="I283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16443,7 +16511,7 @@
         <v>20</v>
       </c>
       <c r="I282" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" s="1" t="b">
         <v>0</v>
@@ -16689,7 +16757,115 @@
         <v>442</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>1594</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C289" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G289" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I289" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J289" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L289" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G290" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I290" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J290" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K290" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="N290" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G291" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I291" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J291" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16705,10 +16881,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>289</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>290</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2000000003</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2000000004</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2000000005</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E159"/>
+  <sheetViews>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16718,8 +17054,8 @@
     <col min="4" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
     <col min="6" max="19" width="25" style="1" customWidth="1"/>
-    <col min="20" max="30" width="9" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
+    <col min="20" max="32" width="9" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -16727,13 +17063,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -16747,7 +17083,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="E2" s="1">
         <v>101000011</v>
@@ -16755,13 +17091,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="E3" s="1">
         <v>101000021</v>
@@ -16775,7 +17111,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="E4" s="1">
         <v>101000031</v>
@@ -16789,7 +17125,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="E5" s="1">
         <v>101000041</v>
@@ -16817,7 +17153,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E7" s="1">
         <v>101000061</v>
@@ -16825,13 +17161,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="E8" s="1">
         <v>101000071</v>
@@ -16845,7 +17181,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>469</v>
       </c>
       <c r="E9" s="1">
         <v>101000081</v>
@@ -16859,7 +17195,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="E10" s="1">
         <v>101000101</v>
@@ -16873,10 +17209,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="E11" s="1">
         <v>101000111</v>
@@ -16890,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="E12" s="1">
         <v>101000121</v>
@@ -16904,7 +17240,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="E13" s="1">
         <v>101000141</v>
@@ -16912,7 +17248,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>0</v>
@@ -16926,13 +17262,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="B15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="E15" s="1">
         <v>101000161</v>
@@ -16946,7 +17282,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="E16" s="1">
         <v>101000171</v>
@@ -16960,7 +17296,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="E17" s="1">
         <v>101000191</v>
@@ -16974,7 +17310,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="E18" s="1">
         <v>101000201</v>
@@ -16982,13 +17318,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="E19" s="1">
         <v>101000211</v>
@@ -17002,7 +17338,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="E20" s="1">
         <v>101000221</v>
@@ -17016,7 +17352,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="E21" s="1">
         <v>101000231</v>
@@ -17030,7 +17366,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="E22" s="1">
         <v>101000241</v>
@@ -17044,10 +17380,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="E23" s="1">
         <v>101000251</v>
@@ -17061,7 +17397,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="E24" s="1">
         <v>101000261</v>
@@ -17075,7 +17411,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="E25" s="1">
         <v>101000271</v>
@@ -17089,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>469</v>
       </c>
       <c r="E26" s="1">
         <v>101000281</v>
@@ -17103,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="E27" s="1">
         <v>101000291</v>
@@ -17117,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="E28" s="1">
         <v>101010011</v>
@@ -17125,13 +17461,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="B29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="E29" s="1">
         <v>101010021</v>
@@ -17145,10 +17481,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="E30" s="1">
         <v>101010031</v>
@@ -17162,7 +17498,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="E31" s="1">
         <v>101010041</v>
@@ -17176,7 +17512,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="E32" s="1">
         <v>101010041</v>
@@ -17190,7 +17526,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="E33" s="1">
         <v>101010051</v>
@@ -17198,13 +17534,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="B34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="E34" s="1">
         <v>101010061</v>
@@ -17232,7 +17568,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="E36" s="1">
         <v>101010091</v>
@@ -17246,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E37" s="1">
         <v>101010101</v>
@@ -17260,7 +17596,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="E38" s="1">
         <v>101010111</v>
@@ -17274,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="E39" s="1">
         <v>101010121</v>
@@ -17288,7 +17624,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="E40" s="1">
         <v>101020011</v>
@@ -17302,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="E41" s="1">
         <v>101020021</v>
@@ -17316,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="E42" s="1">
         <v>101020031</v>
@@ -17330,7 +17666,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="E43" s="1">
         <v>101020041</v>
@@ -17344,7 +17680,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="E44" s="1">
         <v>101020051</v>
@@ -17358,10 +17694,10 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="E45" s="1">
         <v>101020071</v>
@@ -17375,10 +17711,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="E46" s="1">
         <v>101020071</v>
@@ -17392,7 +17728,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="E47" s="1">
         <v>101020081</v>
@@ -17406,7 +17742,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="E48" s="1">
         <v>101020081</v>
@@ -17420,10 +17756,10 @@
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="E49" s="1">
         <v>101020091</v>
@@ -17437,7 +17773,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="E50" s="1">
         <v>101020101</v>
@@ -17465,7 +17801,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="E52" s="1">
         <v>101020121</v>
@@ -17479,7 +17815,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="E53" s="1">
         <v>101020131</v>
@@ -17493,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="E54" s="1">
         <v>101020141</v>
@@ -17507,10 +17843,10 @@
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="E55" s="1">
         <v>101020151</v>
@@ -17518,7 +17854,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="B56" s="1" t="b">
         <v>0</v>
@@ -17532,13 +17868,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="B57" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="E57" s="1">
         <v>101030021</v>
@@ -17546,7 +17882,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="B58" s="1" t="b">
         <v>0</v>
@@ -17560,7 +17896,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="B59" s="1" t="b">
         <v>0</v>
@@ -17574,13 +17910,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="B60" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="E60" s="1">
         <v>101030051</v>
@@ -17588,13 +17924,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="B61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="E61" s="1">
         <v>101030061</v>
@@ -17608,10 +17944,10 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="E62" s="1">
         <v>101030071</v>
@@ -17625,10 +17961,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="E63" s="1">
         <v>101030071</v>
@@ -17636,13 +17972,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="E64" s="1">
         <v>101030081</v>
@@ -17656,10 +17992,10 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="E65" s="1">
         <v>101030091</v>
@@ -17673,7 +18009,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="E66" s="1">
         <v>101030101</v>
@@ -17701,7 +18037,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="E68" s="1">
         <v>101030121</v>
@@ -17715,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="E69" s="1">
         <v>101030131</v>
@@ -17729,7 +18065,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="E70" s="1">
         <v>101030141</v>
@@ -17743,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="E71" s="1">
         <v>101030151</v>
@@ -17757,7 +18093,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="E72" s="1">
         <v>101030161</v>
@@ -17779,13 +18115,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="B74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="E74" s="1">
         <v>101040011</v>
@@ -17799,7 +18135,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="E75" s="1">
         <v>101040021</v>
@@ -17813,10 +18149,10 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="E76" s="1">
         <v>101040031</v>
@@ -17830,10 +18166,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="E77" s="1">
         <v>101040031</v>
@@ -17841,13 +18177,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="B78" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="E78" s="1">
         <v>101040041</v>
@@ -17861,7 +18197,7 @@
         <v>0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="E79" s="1">
         <v>101040051</v>
@@ -17875,7 +18211,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="E80" s="1">
         <v>101040071</v>
@@ -17889,7 +18225,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="E81" s="1">
         <v>101040081</v>
@@ -17903,10 +18239,10 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="E82" s="1">
         <v>101040091</v>
@@ -17920,7 +18256,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="E83" s="1">
         <v>101040101</v>
@@ -17934,7 +18270,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="E84" s="1">
         <v>101040111</v>
@@ -17948,7 +18284,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="E85" s="1">
         <v>101040121</v>
@@ -17962,7 +18298,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="E86" s="1">
         <v>101040131</v>
@@ -17976,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="E87" s="1">
         <v>101040141</v>
@@ -17990,7 +18326,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="E88" s="1">
         <v>101040161</v>
@@ -18004,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="E89" s="1">
         <v>101040171</v>
@@ -18018,7 +18354,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="E90" s="1">
         <v>101050021</v>
@@ -18026,13 +18362,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="E91" s="1">
         <v>101050031</v>
@@ -18040,13 +18376,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="B92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="E92" s="1">
         <v>101050041</v>
@@ -18054,13 +18390,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="B93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="E93" s="1">
         <v>101050051</v>
@@ -18082,13 +18418,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="B95" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="E95" s="1">
         <v>101050071</v>
@@ -18102,7 +18438,10 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>540</v>
+        <v>558</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="E96" s="1">
         <v>101050081</v>
@@ -18116,7 +18455,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="E97" s="1">
         <v>101050091</v>
@@ -18130,7 +18469,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="E98" s="1">
         <v>101050101</v>
@@ -18158,7 +18497,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="E100" s="1">
         <v>101050121</v>
@@ -18172,7 +18511,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="E101" s="1">
         <v>101050131</v>
@@ -18186,7 +18525,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="E102" s="1">
         <v>101050141</v>
@@ -18200,7 +18539,7 @@
         <v>0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="E103" s="1">
         <v>101050151</v>
@@ -18214,7 +18553,7 @@
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>172</v>
+        <v>565</v>
       </c>
       <c r="E104" s="1">
         <v>101050161</v>
@@ -18222,13 +18561,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="B105" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="E105" s="1">
         <v>101060021</v>
@@ -18242,10 +18581,10 @@
         <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="E106" s="1">
         <v>101060031</v>
@@ -18253,13 +18592,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="B107" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="E107" s="1">
         <v>101060051</v>
@@ -18267,13 +18606,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="B108" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="E108" s="1">
         <v>101060061</v>
@@ -18281,13 +18620,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="B109" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="E109" s="1">
         <v>101060071</v>
@@ -18301,7 +18640,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="E110" s="1">
         <v>101060081</v>
@@ -18315,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="E111" s="1">
         <v>101060091</v>
@@ -18329,7 +18668,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="E112" s="1">
         <v>101060101</v>
@@ -18343,7 +18682,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="E113" s="1">
         <v>101060111</v>
@@ -18357,7 +18696,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="E114" s="1">
         <v>101060121</v>
@@ -18371,10 +18710,10 @@
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="E115" s="1">
         <v>101060131</v>
@@ -18388,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="E116" s="1">
         <v>101060141</v>
@@ -18402,7 +18741,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="E117" s="1">
         <v>101070011</v>
@@ -18410,13 +18749,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="B118" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="E118" s="1">
         <v>101070021</v>
@@ -18430,7 +18769,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="E119" s="1">
         <v>101070031</v>
@@ -18444,7 +18783,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="E120" s="1">
         <v>101070051</v>
@@ -18458,10 +18797,10 @@
         <v>0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="E121" s="1">
         <v>101070061</v>
@@ -18475,10 +18814,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="E122" s="1">
         <v>101070061</v>
@@ -18486,13 +18825,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="B123" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="E123" s="1">
         <v>101070071</v>
@@ -18506,7 +18845,7 @@
         <v>0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="E124" s="1">
         <v>101070081</v>
@@ -18520,7 +18859,7 @@
         <v>0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="E125" s="1">
         <v>101070091</v>
@@ -18534,7 +18873,7 @@
         <v>0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="E126" s="1">
         <v>101070101</v>
@@ -18548,7 +18887,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="E127" s="1">
         <v>101070111</v>
@@ -18576,7 +18915,7 @@
         <v>0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="E129" s="1">
         <v>101110041</v>
@@ -18590,10 +18929,10 @@
         <v>0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="E130" s="1">
         <v>101140021</v>
@@ -18607,7 +18946,7 @@
         <v>0</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="E131" s="1">
         <v>101400011</v>
@@ -18621,7 +18960,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="E132" s="1">
         <v>101400071</v>
@@ -18635,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="E133" s="1">
         <v>101410011</v>
@@ -18649,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="E134" s="1">
         <v>101420011</v>
@@ -18761,7 +19100,7 @@
         <v>0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="E142" s="1">
         <v>101800041</v>
@@ -18775,7 +19114,7 @@
         <v>0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="E143" s="1">
         <v>101800052</v>
@@ -18783,13 +19122,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="B144" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="E144" s="1">
         <v>101800063</v>
@@ -18803,7 +19142,7 @@
         <v>0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="E145" s="1">
         <v>101800111</v>
@@ -18817,7 +19156,7 @@
         <v>0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="E146" s="1">
         <v>101900011</v>
@@ -18831,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="E147" s="1">
         <v>101910011</v>
@@ -18845,7 +19184,7 @@
         <v>0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="E148" s="1">
         <v>101920011</v>
@@ -18859,7 +19198,7 @@
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="E149" s="1">
         <v>101960011</v>
@@ -18873,7 +19212,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="E150" s="1">
         <v>101970011</v>
@@ -18901,7 +19240,7 @@
         <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="E152" s="1">
         <v>101000301</v>
@@ -18915,7 +19254,7 @@
         <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>406</v>
@@ -18943,7 +19282,7 @@
         <v>0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>420</v>
@@ -18957,7 +19296,7 @@
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="E156" s="1">
         <v>101050081</v>
@@ -18971,10 +19310,38 @@
         <v>0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>440</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B158" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B159" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -18987,7 +19354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S95"/>
   <sheetViews>
@@ -19005,13 +19372,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="C1" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="D1" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -19019,41 +19386,41 @@
         <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C2" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D2" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="B3" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C3" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D3" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B4" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C4" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D4" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -19061,27 +19428,27 @@
         <v>380</v>
       </c>
       <c r="B5" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C5" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D5" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="B6" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C6" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D6" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -19089,27 +19456,27 @@
         <v>394</v>
       </c>
       <c r="B7" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C7" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D7" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C8" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D8" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -19117,13 +19484,13 @@
         <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C9" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D9" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -19131,13 +19498,13 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C10" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D10" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -19145,13 +19512,13 @@
         <v>392</v>
       </c>
       <c r="B11" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C11" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="D11" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -19159,13 +19526,13 @@
         <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C12" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="D12" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -19173,27 +19540,27 @@
         <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C13" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="D13" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="B14" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C14" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="D14" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -19201,41 +19568,41 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C15" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="D15" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="B16" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C16" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="D16" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="B17" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C17" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="D17" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -19243,27 +19610,27 @@
         <v>389</v>
       </c>
       <c r="B18" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C18" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="D18" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="B19" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C19" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="D19" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -19271,13 +19638,13 @@
         <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C20" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="D20" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -19285,13 +19652,13 @@
         <v>278</v>
       </c>
       <c r="B21" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C21" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="D21" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -19299,13 +19666,13 @@
         <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C22" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="D22" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -19313,13 +19680,13 @@
         <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C23" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="D23" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -19327,13 +19694,13 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C24" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="D24" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -19341,13 +19708,13 @@
         <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C25" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="D25" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -19355,13 +19722,13 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C26" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="D26" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -19369,13 +19736,13 @@
         <v>242</v>
       </c>
       <c r="B27" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C27" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="D27" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -19383,13 +19750,13 @@
         <v>309</v>
       </c>
       <c r="B28" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C28" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="D28" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -19397,13 +19764,13 @@
         <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C29" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="D29" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -19411,13 +19778,13 @@
         <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C30" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="D30" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -19425,27 +19792,27 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C31" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="D31" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="B32" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C32" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="D32" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -19453,13 +19820,13 @@
         <v>423</v>
       </c>
       <c r="B33" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C33" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="D33" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -19467,13 +19834,13 @@
         <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C34" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="D34" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -19481,13 +19848,13 @@
         <v>242</v>
       </c>
       <c r="B35" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C35" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="D35" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -19495,13 +19862,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C36" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="D36" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -19509,13 +19876,13 @@
         <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C37" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="D37" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -19523,13 +19890,13 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C38" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="D38" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -19537,13 +19904,13 @@
         <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C39" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="D39" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -19551,13 +19918,13 @@
         <v>302</v>
       </c>
       <c r="B40" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C40" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="D40" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -19565,13 +19932,13 @@
         <v>243</v>
       </c>
       <c r="B41" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C41" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="D41" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -19579,13 +19946,13 @@
         <v>192</v>
       </c>
       <c r="B42" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C42" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="D42" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -19593,13 +19960,13 @@
         <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C43" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="D43" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -19607,13 +19974,13 @@
         <v>260</v>
       </c>
       <c r="B44" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C44" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="D44" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -19621,13 +19988,13 @@
         <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C45" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="D45" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -19635,13 +20002,13 @@
         <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C46" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="D46" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -19649,13 +20016,13 @@
         <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C47" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="D47" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -19663,13 +20030,13 @@
         <v>334</v>
       </c>
       <c r="B48" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C48" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="D48" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -19677,13 +20044,13 @@
         <v>410</v>
       </c>
       <c r="B49" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C49" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="D49" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -19691,13 +20058,13 @@
         <v>243</v>
       </c>
       <c r="B50" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C50" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="D50" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -19705,13 +20072,13 @@
         <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C51" t="s">
         <v>366</v>
       </c>
       <c r="D51" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -19719,13 +20086,13 @@
         <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C52" t="s">
         <v>366</v>
       </c>
       <c r="D52" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -19733,13 +20100,13 @@
         <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C53" t="s">
         <v>366</v>
       </c>
       <c r="D53" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -19747,13 +20114,13 @@
         <v>304</v>
       </c>
       <c r="B54" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C54" t="s">
         <v>366</v>
       </c>
       <c r="D54" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -19761,13 +20128,13 @@
         <v>378</v>
       </c>
       <c r="B55" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C55" t="s">
         <v>366</v>
       </c>
       <c r="D55" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -19775,13 +20142,13 @@
         <v>382</v>
       </c>
       <c r="B56" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C56" t="s">
         <v>366</v>
       </c>
       <c r="D56" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -19789,13 +20156,13 @@
         <v>364</v>
       </c>
       <c r="B57" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="C57" t="s">
         <v>366</v>
       </c>
       <c r="D57" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -19806,7 +20173,7 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -19817,7 +20184,7 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -19828,7 +20195,7 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -19839,7 +20206,7 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -19855,24 +20222,24 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -19894,7 +20261,7 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -19905,7 +20272,7 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -19916,7 +20283,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -19927,7 +20294,7 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -19938,7 +20305,7 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -19971,7 +20338,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -19982,7 +20349,7 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -20015,7 +20382,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -20026,7 +20393,7 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -20048,7 +20415,7 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -20059,7 +20426,7 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -20070,7 +20437,7 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -20081,7 +20448,7 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -20092,7 +20459,7 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -20103,7 +20470,7 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -20114,7 +20481,7 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -20125,7 +20492,7 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -20158,7 +20525,7 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -20169,7 +20536,7 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -20180,7 +20547,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -20191,7 +20558,7 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -20202,7 +20569,7 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -20213,7 +20580,7 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -20227,7 +20594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
@@ -20249,16 +20616,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -20266,13 +20633,13 @@
         <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -20280,13 +20647,13 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -20294,13 +20661,13 @@
         <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -20308,13 +20675,13 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -20322,13 +20689,13 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -20336,13 +20703,13 @@
         <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -20350,97 +20717,97 @@
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>664</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>668</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>671</v>
+        <v>693</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -20448,13 +20815,13 @@
         <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -20462,69 +20829,69 @@
         <v>366</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -20532,13 +20899,13 @@
         <v>88</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -20546,13 +20913,13 @@
         <v>132</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -20560,27 +20927,27 @@
         <v>272</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -20588,111 +20955,111 @@
         <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>726</v>
+        <v>748</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -20700,153 +21067,153 @@
         <v>388</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>744</v>
+        <v>766</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>753</v>
+        <v>775</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>765</v>
+        <v>787</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -20891,11 +21258,11 @@
     <hyperlink ref="B40" r:id="rId37" tooltip="Sapient Complex: Midnight (Another Dungeon)" display="https://anothereden.miraheze.org/wiki/Sapient_Complex:_Midnight_(Another_Dungeon)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -20912,166 +21279,166 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>776</v>
+        <v>798</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>784</v>
+        <v>806</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>786</v>
+        <v>808</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>787</v>
+        <v>809</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>788</v>
+        <v>810</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>789</v>
+        <v>811</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>790</v>
+        <v>812</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>793</v>
+        <v>815</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>794</v>
+        <v>816</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>795</v>
+        <v>817</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>796</v>
+        <v>818</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>797</v>
+        <v>819</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>798</v>
+        <v>820</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>799</v>
+        <v>821</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>800</v>
+        <v>822</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>801</v>
+        <v>823</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>802</v>
+        <v>824</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>804</v>
+        <v>826</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>806</v>
+        <v>828</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>808</v>
+        <v>830</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>810</v>
+        <v>832</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -21187,12 +21554,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21202,13 +21569,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -21216,10 +21583,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>811</v>
+        <v>833</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>812</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -21227,10 +21594,10 @@
         <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>813</v>
+        <v>835</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>814</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -21238,10 +21605,10 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>815</v>
+        <v>837</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>816</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -21249,10 +21616,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>817</v>
+        <v>839</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -21260,142 +21627,142 @@
         <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>819</v>
+        <v>841</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>820</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>821</v>
+        <v>843</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>822</v>
+        <v>844</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>822</v>
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>823</v>
+        <v>845</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>825</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>827</v>
+        <v>849</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>828</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>829</v>
+        <v>851</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>830</v>
+        <v>852</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>831</v>
+        <v>853</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>833</v>
+        <v>855</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>834</v>
+        <v>856</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>835</v>
+        <v>857</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>836</v>
+        <v>858</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>837</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>838</v>
+        <v>860</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>839</v>
+        <v>861</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>840</v>
+        <v>862</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>841</v>
+        <v>863</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>842</v>
+        <v>864</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>843</v>
+        <v>865</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>844</v>
+        <v>866</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>845</v>
+        <v>867</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>846</v>
+        <v>868</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>847</v>
+        <v>869</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>848</v>
+        <v>870</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>849</v>
+        <v>871</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>850</v>
+        <v>872</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>851</v>
+        <v>873</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>852</v>
+        <v>874</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>853</v>
+        <v>875</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -21403,10 +21770,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>856</v>
+        <v>878</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>857</v>
+        <v>879</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -21414,10 +21781,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>858</v>
+        <v>880</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>859</v>
+        <v>881</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -21425,10 +21792,10 @@
         <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>860</v>
+        <v>882</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>861</v>
+        <v>883</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -21436,10 +21803,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>862</v>
+        <v>884</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>863</v>
+        <v>885</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -21447,10 +21814,10 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>864</v>
+        <v>886</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>865</v>
+        <v>887</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -21458,10 +21825,10 @@
         <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>866</v>
+        <v>888</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>867</v>
+        <v>889</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -21469,10 +21836,10 @@
         <v>141</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>868</v>
+        <v>890</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -21480,10 +21847,10 @@
         <v>193</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>870</v>
+        <v>892</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>871</v>
+        <v>893</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -21491,10 +21858,10 @@
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>872</v>
+        <v>894</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>873</v>
+        <v>895</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -21502,10 +21869,10 @@
         <v>172</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>874</v>
+        <v>896</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -21513,10 +21880,10 @@
         <v>305</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>876</v>
+        <v>898</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>877</v>
+        <v>899</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -21524,10 +21891,10 @@
         <v>235</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>879</v>
+        <v>901</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -21535,10 +21902,10 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>880</v>
+        <v>902</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>881</v>
+        <v>903</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -21546,10 +21913,10 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>882</v>
+        <v>904</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>883</v>
+        <v>905</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -21557,65 +21924,65 @@
         <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>885</v>
+        <v>907</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>886</v>
+        <v>908</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>887</v>
+        <v>909</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>888</v>
+        <v>910</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>889</v>
+        <v>911</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>890</v>
+        <v>912</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>891</v>
+        <v>913</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>892</v>
+        <v>914</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>893</v>
+        <v>915</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>894</v>
+        <v>450</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>895</v>
+        <v>916</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>896</v>
+        <v>917</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>897</v>
+        <v>918</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>898</v>
+        <v>919</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>899</v>
+        <v>920</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -21623,25 +21990,25 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>900</v>
+        <v>921</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>901</v>
+        <v>922</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C297"/>
+  <dimension ref="A1:C305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+    <sheetView topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21651,13 +22018,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -21665,21 +22032,21 @@
         <v>294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>902</v>
+        <v>923</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>903</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>904</v>
+        <v>925</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>905</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -21687,10 +22054,10 @@
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>906</v>
+        <v>927</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>907</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -21698,10 +22065,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>908</v>
+        <v>929</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>909</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -21709,21 +22076,21 @@
         <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>910</v>
+        <v>931</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>911</v>
+        <v>932</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>912</v>
+        <v>933</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>913</v>
+        <v>934</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -21731,21 +22098,21 @@
         <v>376</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>914</v>
+        <v>935</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>915</v>
+        <v>936</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>916</v>
+        <v>937</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>917</v>
+        <v>938</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -21753,10 +22120,10 @@
         <v>240</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>918</v>
+        <v>939</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>919</v>
+        <v>940</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -21764,10 +22131,10 @@
         <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>920</v>
+        <v>941</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>921</v>
+        <v>942</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -21775,10 +22142,10 @@
         <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>922</v>
+        <v>943</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>923</v>
+        <v>944</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -21786,10 +22153,10 @@
         <v>243</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>924</v>
+        <v>945</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>925</v>
+        <v>946</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -21797,10 +22164,10 @@
         <v>252</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>926</v>
+        <v>947</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>927</v>
+        <v>948</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -21808,10 +22175,10 @@
         <v>311</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>928</v>
+        <v>949</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>929</v>
+        <v>950</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -21819,10 +22186,10 @@
         <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>930</v>
+        <v>951</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>931</v>
+        <v>952</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -21830,10 +22197,10 @@
         <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -21841,10 +22208,10 @@
         <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>934</v>
+        <v>955</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>935</v>
+        <v>956</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -21852,10 +22219,10 @@
         <v>309</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>936</v>
+        <v>957</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>937</v>
+        <v>958</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -21863,10 +22230,10 @@
         <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>938</v>
+        <v>959</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>939</v>
+        <v>960</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -21874,10 +22241,10 @@
         <v>410</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>940</v>
+        <v>961</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>941</v>
+        <v>962</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -21885,10 +22252,10 @@
         <v>166</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>942</v>
+        <v>963</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>943</v>
+        <v>964</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -21896,10 +22263,10 @@
         <v>229</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>944</v>
+        <v>965</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>945</v>
+        <v>966</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -21907,10 +22274,10 @@
         <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>946</v>
+        <v>967</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>947</v>
+        <v>968</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -21918,10 +22285,10 @@
         <v>394</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>948</v>
+        <v>969</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>949</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -21929,10 +22296,10 @@
         <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>950</v>
+        <v>971</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>951</v>
+        <v>972</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -21940,10 +22307,10 @@
         <v>328</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>952</v>
+        <v>973</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>953</v>
+        <v>974</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -21951,10 +22318,10 @@
         <v>318</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>954</v>
+        <v>975</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>955</v>
+        <v>976</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -21962,32 +22329,32 @@
         <v>288</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>956</v>
+        <v>977</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>957</v>
+        <v>978</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>958</v>
+        <v>979</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>959</v>
+        <v>980</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>960</v>
+        <v>981</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>961</v>
+        <v>982</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -21995,10 +22362,10 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>962</v>
+        <v>983</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>963</v>
+        <v>984</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -22006,10 +22373,10 @@
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>964</v>
+        <v>985</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>965</v>
+        <v>986</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -22017,10 +22384,10 @@
         <v>269</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>966</v>
+        <v>987</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>967</v>
+        <v>988</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -22028,10 +22395,10 @@
         <v>144</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>968</v>
+        <v>989</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>969</v>
+        <v>990</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -22039,10 +22406,10 @@
         <v>322</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>970</v>
+        <v>991</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>971</v>
+        <v>992</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -22050,21 +22417,21 @@
         <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>972</v>
+        <v>993</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>973</v>
+        <v>994</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>974</v>
+        <v>995</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>975</v>
+        <v>996</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -22072,10 +22439,10 @@
         <v>377</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>976</v>
+        <v>997</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>977</v>
+        <v>998</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -22083,21 +22450,21 @@
         <v>100</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>978</v>
+        <v>999</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>979</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>980</v>
+        <v>1001</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>981</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -22105,10 +22472,10 @@
         <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>982</v>
+        <v>1003</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>983</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -22116,10 +22483,10 @@
         <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>984</v>
+        <v>1005</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>985</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -22127,10 +22494,10 @@
         <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>986</v>
+        <v>1007</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>987</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -22138,32 +22505,32 @@
         <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>988</v>
+        <v>1009</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>989</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>990</v>
+        <v>1011</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>991</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>992</v>
+        <v>1013</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>993</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -22171,10 +22538,10 @@
         <v>187</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>994</v>
+        <v>1015</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>995</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -22182,10 +22549,10 @@
         <v>363</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>996</v>
+        <v>1017</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>997</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -22193,10 +22560,10 @@
         <v>284</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>998</v>
+        <v>1019</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>999</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -22204,10 +22571,10 @@
         <v>391</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1000</v>
+        <v>1021</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1001</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -22215,21 +22582,21 @@
         <v>435</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1002</v>
+        <v>1023</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1003</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1004</v>
+        <v>1025</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1005</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -22237,21 +22604,21 @@
         <v>238</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1006</v>
+        <v>1027</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1007</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1008</v>
+        <v>1029</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1009</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -22259,10 +22626,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1010</v>
+        <v>1031</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1011</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -22270,10 +22637,10 @@
         <v>356</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1012</v>
+        <v>1033</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1013</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -22281,10 +22648,10 @@
         <v>304</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1014</v>
+        <v>1035</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1015</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -22292,10 +22659,10 @@
         <v>367</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1016</v>
+        <v>1037</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1017</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -22303,21 +22670,21 @@
         <v>242</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1018</v>
+        <v>1039</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1019</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1020</v>
+        <v>1041</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1021</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -22325,10 +22692,10 @@
         <v>214</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1022</v>
+        <v>1043</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1023</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -22336,10 +22703,10 @@
         <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1024</v>
+        <v>1045</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1025</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -22347,10 +22714,10 @@
         <v>371</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1026</v>
+        <v>1047</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1027</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -22358,10 +22725,10 @@
         <v>191</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1028</v>
+        <v>1049</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1029</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -22369,21 +22736,21 @@
         <v>336</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1030</v>
+        <v>1051</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1031</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1032</v>
+        <v>1053</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1033</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -22391,21 +22758,21 @@
         <v>378</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1034</v>
+        <v>1055</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1035</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1036</v>
+        <v>1057</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1037</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -22413,10 +22780,10 @@
         <v>210</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1038</v>
+        <v>1059</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1039</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -22424,10 +22791,10 @@
         <v>374</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1040</v>
+        <v>1061</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1041</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -22435,10 +22802,10 @@
         <v>265</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1042</v>
+        <v>1063</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1043</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -22446,21 +22813,21 @@
         <v>340</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1044</v>
+        <v>1065</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1045</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1046</v>
+        <v>1067</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1047</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -22468,10 +22835,10 @@
         <v>179</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1048</v>
+        <v>1069</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1049</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -22479,21 +22846,21 @@
         <v>136</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1050</v>
+        <v>1071</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1051</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1052</v>
+        <v>1073</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1053</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -22501,10 +22868,10 @@
         <v>368</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1054</v>
+        <v>1075</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1055</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -22512,10 +22879,10 @@
         <v>189</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1056</v>
+        <v>1077</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1057</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -22523,10 +22890,10 @@
         <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1058</v>
+        <v>1079</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1059</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -22534,10 +22901,10 @@
         <v>372</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1060</v>
+        <v>1081</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1061</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -22545,10 +22912,10 @@
         <v>370</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1062</v>
+        <v>1083</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1063</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -22556,10 +22923,10 @@
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1064</v>
+        <v>1085</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1065</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -22567,10 +22934,10 @@
         <v>222</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1066</v>
+        <v>1087</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1067</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -22578,10 +22945,10 @@
         <v>380</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1069</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -22589,10 +22956,10 @@
         <v>155</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1070</v>
+        <v>1091</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1071</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -22600,10 +22967,10 @@
         <v>140</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1072</v>
+        <v>1093</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1073</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -22611,10 +22978,10 @@
         <v>423</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1074</v>
+        <v>1095</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1075</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -22622,32 +22989,32 @@
         <v>71</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1076</v>
+        <v>1097</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1077</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1078</v>
+        <v>1099</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1079</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1080</v>
+        <v>1101</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1081</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -22655,10 +23022,10 @@
         <v>330</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1082</v>
+        <v>1103</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1083</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -22666,10 +23033,10 @@
         <v>324</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1084</v>
+        <v>1105</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1085</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -22677,10 +23044,10 @@
         <v>260</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1086</v>
+        <v>1107</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1087</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -22688,10 +23055,10 @@
         <v>360</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1088</v>
+        <v>1109</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1089</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -22699,10 +23066,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1090</v>
+        <v>1111</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1091</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -22710,10 +23077,10 @@
         <v>175</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1092</v>
+        <v>1113</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1093</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -22721,10 +23088,10 @@
         <v>120</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1094</v>
+        <v>1115</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1095</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -22732,10 +23099,10 @@
         <v>244</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1096</v>
+        <v>1117</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1097</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -22743,10 +23110,10 @@
         <v>201</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1098</v>
+        <v>1119</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1099</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -22754,10 +23121,10 @@
         <v>302</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1100</v>
+        <v>1121</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1101</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -22765,10 +23132,10 @@
         <v>183</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1102</v>
+        <v>1123</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1103</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -22776,10 +23143,10 @@
         <v>278</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1104</v>
+        <v>1125</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1105</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -22787,10 +23154,10 @@
         <v>289</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1106</v>
+        <v>1127</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1107</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -22798,10 +23165,10 @@
         <v>60</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1108</v>
+        <v>1129</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1109</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -22809,10 +23176,10 @@
         <v>383</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1110</v>
+        <v>1131</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1111</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -22820,10 +23187,10 @@
         <v>375</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1112</v>
+        <v>1133</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1113</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -22831,21 +23198,21 @@
         <v>386</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1114</v>
+        <v>1135</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1115</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1116</v>
+        <v>1137</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1117</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -22853,10 +23220,10 @@
         <v>97</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1118</v>
+        <v>1139</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1119</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -22864,10 +23231,10 @@
         <v>369</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1121</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -22875,10 +23242,10 @@
         <v>382</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1122</v>
+        <v>1143</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1123</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -22886,21 +23253,21 @@
         <v>364</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1124</v>
+        <v>1145</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1125</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1126</v>
+        <v>1147</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1127</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -22908,10 +23275,10 @@
         <v>292</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1128</v>
+        <v>1149</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1129</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -22919,10 +23286,10 @@
         <v>392</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1130</v>
+        <v>1151</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1131</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -22930,10 +23297,10 @@
         <v>256</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1132</v>
+        <v>1153</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1133</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -22941,10 +23308,10 @@
         <v>192</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1134</v>
+        <v>1155</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1135</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -22952,21 +23319,21 @@
         <v>335</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1136</v>
+        <v>1157</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1137</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1138</v>
+        <v>1159</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1139</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -22974,10 +23341,10 @@
         <v>352</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1140</v>
+        <v>1161</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1141</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -22985,21 +23352,21 @@
         <v>29</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1142</v>
+        <v>1163</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1143</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1144</v>
+        <v>1165</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1145</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -23007,21 +23374,21 @@
         <v>362</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1146</v>
+        <v>1167</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1147</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1148</v>
+        <v>1169</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1149</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -23029,21 +23396,21 @@
         <v>65</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1150</v>
+        <v>1171</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1151</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1152</v>
+        <v>1173</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1153</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -23051,21 +23418,21 @@
         <v>348</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1154</v>
+        <v>1175</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1155</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1156</v>
+        <v>1177</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1157</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -23073,10 +23440,10 @@
         <v>389</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1158</v>
+        <v>1179</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1159</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -23084,10 +23451,10 @@
         <v>119</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1160</v>
+        <v>1181</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1161</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -23095,10 +23462,10 @@
         <v>267</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1162</v>
+        <v>1183</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1163</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -23106,10 +23473,10 @@
         <v>55</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1164</v>
+        <v>1185</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1165</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -23117,10 +23484,10 @@
         <v>79</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1166</v>
+        <v>1187</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1167</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -23128,21 +23495,21 @@
         <v>17</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1168</v>
+        <v>1189</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1169</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1170</v>
+        <v>1191</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1171</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -23150,10 +23517,10 @@
         <v>206</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1172</v>
+        <v>1193</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1173</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -23161,21 +23528,21 @@
         <v>274</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1174</v>
+        <v>1195</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1175</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1176</v>
+        <v>1197</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1177</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -23183,10 +23550,10 @@
         <v>124</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1178</v>
+        <v>1199</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1179</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -23194,10 +23561,10 @@
         <v>248</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1180</v>
+        <v>1201</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1181</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -23205,10 +23572,10 @@
         <v>334</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1182</v>
+        <v>1203</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1183</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -23216,10 +23583,10 @@
         <v>227</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1184</v>
+        <v>1205</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1185</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -23227,10 +23594,10 @@
         <v>373</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1186</v>
+        <v>1207</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1187</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -23238,10 +23605,10 @@
         <v>138</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1188</v>
+        <v>1209</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1189</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -23249,10 +23616,10 @@
         <v>158</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1190</v>
+        <v>1211</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1191</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -23260,10 +23627,10 @@
         <v>246</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1192</v>
+        <v>1213</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1193</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -23271,10 +23638,10 @@
         <v>212</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1194</v>
+        <v>1215</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1195</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -23282,10 +23649,10 @@
         <v>37</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1196</v>
+        <v>1217</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1197</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -23293,10 +23660,10 @@
         <v>122</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1198</v>
+        <v>1219</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1199</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -23304,10 +23671,10 @@
         <v>365</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1200</v>
+        <v>1221</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1201</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -23315,10 +23682,10 @@
         <v>281</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1202</v>
+        <v>1223</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1203</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -23326,10 +23693,10 @@
         <v>359</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1204</v>
+        <v>1225</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1205</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -23337,10 +23704,10 @@
         <v>390</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1206</v>
+        <v>1227</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1207</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -23348,10 +23715,10 @@
         <v>393</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1208</v>
+        <v>1229</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1209</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -23359,10 +23726,10 @@
         <v>254</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1210</v>
+        <v>1231</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1211</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -23370,10 +23737,10 @@
         <v>135</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1212</v>
+        <v>1233</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1213</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -23381,10 +23748,10 @@
         <v>220</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1214</v>
+        <v>1235</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1215</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -23392,10 +23759,10 @@
         <v>69</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1216</v>
+        <v>1237</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1217</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -23403,10 +23770,10 @@
         <v>354</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1218</v>
+        <v>1239</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1219</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -23414,10 +23781,10 @@
         <v>98</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1220</v>
+        <v>1241</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1221</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -23425,10 +23792,10 @@
         <v>384</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1222</v>
+        <v>1243</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1223</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -23436,10 +23803,10 @@
         <v>258</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1224</v>
+        <v>1245</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1225</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -23447,10 +23814,10 @@
         <v>232</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1226</v>
+        <v>1247</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1227</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -23458,10 +23825,10 @@
         <v>291</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1228</v>
+        <v>1249</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1229</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -23469,10 +23836,10 @@
         <v>310</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1230</v>
+        <v>1251</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1231</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -23480,10 +23847,10 @@
         <v>361</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1232</v>
+        <v>1253</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1233</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -23491,10 +23858,10 @@
         <v>381</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1234</v>
+        <v>1255</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1235</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -23502,10 +23869,10 @@
         <v>57</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1236</v>
+        <v>1257</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1237</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -23513,10 +23880,10 @@
         <v>315</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1238</v>
+        <v>1259</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1239</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -23524,10 +23891,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1240</v>
+        <v>1261</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1241</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -23535,10 +23902,10 @@
         <v>226</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1242</v>
+        <v>1263</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1243</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -23546,10 +23913,10 @@
         <v>395</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1244</v>
+        <v>1265</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1245</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -23557,10 +23924,10 @@
         <v>332</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1246</v>
+        <v>1267</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1247</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -23568,10 +23935,10 @@
         <v>208</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1248</v>
+        <v>1269</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1249</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -23579,10 +23946,10 @@
         <v>131</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1250</v>
+        <v>1271</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1251</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -23590,10 +23957,10 @@
         <v>31</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1252</v>
+        <v>1273</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1253</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -23601,10 +23968,10 @@
         <v>268</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1254</v>
+        <v>1275</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1255</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -23612,10 +23979,10 @@
         <v>185</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1256</v>
+        <v>1277</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1257</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -23623,10 +23990,10 @@
         <v>203</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1258</v>
+        <v>1279</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1259</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -23634,10 +24001,10 @@
         <v>296</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1260</v>
+        <v>1281</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1261</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -23645,10 +24012,10 @@
         <v>82</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1262</v>
+        <v>1283</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1263</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -23656,10 +24023,10 @@
         <v>177</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1264</v>
+        <v>1285</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1265</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -23667,10 +24034,10 @@
         <v>149</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1266</v>
+        <v>1287</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1267</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -23678,10 +24045,10 @@
         <v>351</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1268</v>
+        <v>1289</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1269</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -23689,10 +24056,10 @@
         <v>76</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1270</v>
+        <v>1291</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1271</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -23700,10 +24067,10 @@
         <v>266</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1272</v>
+        <v>1293</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1273</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -23711,10 +24078,10 @@
         <v>216</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1274</v>
+        <v>1295</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1275</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -23722,10 +24089,10 @@
         <v>329</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1276</v>
+        <v>1297</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1277</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -23733,10 +24100,10 @@
         <v>250</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1278</v>
+        <v>1299</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1279</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -23744,10 +24111,10 @@
         <v>343</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1280</v>
+        <v>1301</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1281</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -23755,10 +24122,10 @@
         <v>271</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1282</v>
+        <v>1303</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1283</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -23766,10 +24133,10 @@
         <v>387</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1284</v>
+        <v>1305</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1285</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -23777,10 +24144,10 @@
         <v>276</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1286</v>
+        <v>1307</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1287</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -23788,10 +24155,10 @@
         <v>169</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1288</v>
+        <v>1309</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1289</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -23799,10 +24166,10 @@
         <v>338</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1290</v>
+        <v>1311</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1291</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -23810,10 +24177,10 @@
         <v>286</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1292</v>
+        <v>1313</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1293</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -23821,10 +24188,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1294</v>
+        <v>1315</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1295</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -23832,10 +24199,10 @@
         <v>63</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1296</v>
+        <v>1317</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1297</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -23843,10 +24210,10 @@
         <v>103</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1298</v>
+        <v>1319</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1299</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -23854,10 +24221,10 @@
         <v>111</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1300</v>
+        <v>1321</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1301</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -23865,10 +24232,10 @@
         <v>23</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1302</v>
+        <v>1323</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1303</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -23876,10 +24243,10 @@
         <v>326</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1304</v>
+        <v>1325</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1305</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -23887,10 +24254,10 @@
         <v>303</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1306</v>
+        <v>1327</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1307</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -23898,10 +24265,10 @@
         <v>95</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1308</v>
+        <v>1329</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1309</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -23909,10 +24276,10 @@
         <v>190</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1310</v>
+        <v>1331</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1311</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -23920,10 +24287,10 @@
         <v>87</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1312</v>
+        <v>1333</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1313</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -23931,10 +24298,10 @@
         <v>379</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1314</v>
+        <v>1335</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1315</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -23942,10 +24309,10 @@
         <v>320</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1316</v>
+        <v>1337</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1317</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -23953,10 +24320,10 @@
         <v>188</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1318</v>
+        <v>1339</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1319</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -23964,10 +24331,10 @@
         <v>143</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1320</v>
+        <v>1341</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1321</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -23975,10 +24342,10 @@
         <v>307</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1322</v>
+        <v>1343</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1323</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -23986,10 +24353,10 @@
         <v>301</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1324</v>
+        <v>1345</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1325</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -23997,10 +24364,10 @@
         <v>181</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1326</v>
+        <v>1347</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1327</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -24008,10 +24375,10 @@
         <v>126</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1328</v>
+        <v>1349</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1329</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -24019,10 +24386,10 @@
         <v>51</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1330</v>
+        <v>1351</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1331</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -24030,10 +24397,10 @@
         <v>165</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1332</v>
+        <v>1353</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1333</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -24041,10 +24408,10 @@
         <v>228</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1334</v>
+        <v>1355</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1335</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -24052,10 +24419,10 @@
         <v>239</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1336</v>
+        <v>1357</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -24063,10 +24430,10 @@
         <v>262</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1338</v>
+        <v>1359</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1339</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24074,10 +24441,10 @@
         <v>293</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1340</v>
+        <v>1361</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1341</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -24085,10 +24452,10 @@
         <v>323</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1342</v>
+        <v>1363</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1343</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24096,10 +24463,10 @@
         <v>139</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1344</v>
+        <v>1365</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1345</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -24107,10 +24474,10 @@
         <v>64</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1346</v>
+        <v>1367</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1347</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -24118,10 +24485,10 @@
         <v>255</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1348</v>
+        <v>1369</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1349</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -24129,10 +24496,10 @@
         <v>127</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1350</v>
+        <v>1371</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1351</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -24140,10 +24507,10 @@
         <v>277</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1352</v>
+        <v>1373</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1353</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -24151,10 +24518,10 @@
         <v>123</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1354</v>
+        <v>1375</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1355</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -24162,10 +24529,10 @@
         <v>234</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1356</v>
+        <v>1377</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1357</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -24173,10 +24540,10 @@
         <v>205</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1358</v>
+        <v>1379</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1359</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -24184,10 +24551,10 @@
         <v>247</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1360</v>
+        <v>1381</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1361</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -24195,10 +24562,10 @@
         <v>200</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1362</v>
+        <v>1383</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1363</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -24206,10 +24573,10 @@
         <v>339</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1364</v>
+        <v>1385</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1365</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -24217,10 +24584,10 @@
         <v>48</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1366</v>
+        <v>1387</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1367</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -24228,10 +24595,10 @@
         <v>78</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1368</v>
+        <v>1389</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1369</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -24239,10 +24606,10 @@
         <v>105</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1370</v>
+        <v>1391</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1371</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -24250,10 +24617,10 @@
         <v>259</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1372</v>
+        <v>1393</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1373</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -24261,10 +24628,10 @@
         <v>327</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1374</v>
+        <v>1395</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1375</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -24272,10 +24639,10 @@
         <v>70</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1376</v>
+        <v>1397</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1377</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -24283,10 +24650,10 @@
         <v>241</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1378</v>
+        <v>1399</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1379</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -24294,10 +24661,10 @@
         <v>347</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1380</v>
+        <v>1401</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1381</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -24305,10 +24672,10 @@
         <v>33</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1382</v>
+        <v>1403</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1383</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -24316,10 +24683,10 @@
         <v>40</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1384</v>
+        <v>1405</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1385</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24327,10 +24694,10 @@
         <v>163</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1386</v>
+        <v>1407</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1387</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -24338,10 +24705,10 @@
         <v>209</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1388</v>
+        <v>1409</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1389</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -24349,10 +24716,10 @@
         <v>283</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1390</v>
+        <v>1411</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1391</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -24360,10 +24727,10 @@
         <v>333</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1392</v>
+        <v>1413</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1393</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -24371,10 +24738,10 @@
         <v>273</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1394</v>
+        <v>1415</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1395</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -24382,10 +24749,10 @@
         <v>251</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1396</v>
+        <v>1417</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1397</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -24393,10 +24760,10 @@
         <v>154</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1398</v>
+        <v>1419</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1399</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -24404,10 +24771,10 @@
         <v>114</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1400</v>
+        <v>1421</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1401</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -24415,10 +24782,10 @@
         <v>186</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1402</v>
+        <v>1423</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1403</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24426,10 +24793,10 @@
         <v>178</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1404</v>
+        <v>1425</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1405</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -24437,10 +24804,10 @@
         <v>297</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1406</v>
+        <v>1427</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1407</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -24448,10 +24815,10 @@
         <v>308</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1408</v>
+        <v>1429</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1409</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -24459,10 +24826,10 @@
         <v>345</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1410</v>
+        <v>1431</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1411</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -24470,10 +24837,10 @@
         <v>84</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1412</v>
+        <v>1433</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1413</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -24481,10 +24848,10 @@
         <v>171</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1414</v>
+        <v>1435</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1415</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -24492,10 +24859,10 @@
         <v>72</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1416</v>
+        <v>1437</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1417</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -24503,10 +24870,10 @@
         <v>89</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1418</v>
+        <v>1439</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1419</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -24514,10 +24881,10 @@
         <v>174</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1420</v>
+        <v>1441</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1421</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -24525,10 +24892,10 @@
         <v>317</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1422</v>
+        <v>1443</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1423</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -24536,10 +24903,10 @@
         <v>287</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1424</v>
+        <v>1445</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1425</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -24547,10 +24914,10 @@
         <v>107</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1426</v>
+        <v>1447</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1427</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -24558,10 +24925,10 @@
         <v>221</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1428</v>
+        <v>1449</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1429</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -24569,10 +24936,10 @@
         <v>161</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>1430</v>
+        <v>1451</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1431</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -24580,10 +24947,10 @@
         <v>150</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1432</v>
+        <v>1453</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1433</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -24591,10 +24958,10 @@
         <v>182</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1434</v>
+        <v>1455</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1435</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -24602,10 +24969,10 @@
         <v>355</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1436</v>
+        <v>1457</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1437</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -24613,10 +24980,10 @@
         <v>198</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1438</v>
+        <v>1459</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1439</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -24624,10 +24991,10 @@
         <v>27</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1440</v>
+        <v>1461</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1441</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -24635,10 +25002,10 @@
         <v>217</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1442</v>
+        <v>1463</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1443</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -24646,10 +25013,10 @@
         <v>145</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1444</v>
+        <v>1465</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1445</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -24657,10 +25024,10 @@
         <v>117</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1446</v>
+        <v>1467</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1447</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -24668,10 +25035,10 @@
         <v>152</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1448</v>
+        <v>1469</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1449</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -24679,10 +25046,10 @@
         <v>213</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1450</v>
+        <v>1471</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1451</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -24690,10 +25057,10 @@
         <v>237</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1452</v>
+        <v>1473</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1453</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -24701,10 +25068,10 @@
         <v>264</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1454</v>
+        <v>1475</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1455</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -24712,10 +25079,10 @@
         <v>397</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1456</v>
+        <v>1477</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1457</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -24723,10 +25090,10 @@
         <v>396</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1458</v>
+        <v>1479</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1459</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -24734,10 +25101,10 @@
         <v>66</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1460</v>
+        <v>1481</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1461</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -24745,10 +25112,10 @@
         <v>400</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1462</v>
+        <v>1483</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1463</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -24756,10 +25123,10 @@
         <v>402</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1464</v>
+        <v>1485</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1465</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -24767,10 +25134,10 @@
         <v>404</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1466</v>
+        <v>1487</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1467</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -24778,10 +25145,10 @@
         <v>405</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1468</v>
+        <v>1489</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1469</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -24789,10 +25156,10 @@
         <v>409</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1470</v>
+        <v>1491</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1471</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -24800,10 +25167,10 @@
         <v>414</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1472</v>
+        <v>1493</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1473</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -24811,10 +25178,10 @@
         <v>416</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1474</v>
+        <v>1495</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1475</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -24822,10 +25189,10 @@
         <v>417</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1476</v>
+        <v>1497</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>1477</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -24833,10 +25200,10 @@
         <v>419</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1478</v>
+        <v>1499</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1479</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -24844,21 +25211,21 @@
         <v>426</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1480</v>
+        <v>1501</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>1481</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+      <c r="A292" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B292" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C292" t="s">
-        <v>1483</v>
+      <c r="B292" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -24866,10 +25233,10 @@
         <v>430</v>
       </c>
       <c r="B293" t="s">
-        <v>1484</v>
+        <v>1505</v>
       </c>
       <c r="C293" t="s">
-        <v>1485</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -24877,43 +25244,131 @@
         <v>432</v>
       </c>
       <c r="B294" t="s">
-        <v>1486</v>
+        <v>1507</v>
       </c>
       <c r="C294" t="s">
-        <v>1487</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A295" s="3" t="s">
+      <c r="A295" t="s">
         <v>434</v>
       </c>
-      <c r="B295" s="3" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>1592</v>
+      <c r="B295" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
+      <c r="A296" t="s">
         <v>439</v>
       </c>
-      <c r="B296" s="3" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>1593</v>
+      <c r="B296" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A297" s="3" t="s">
+      <c r="A297" t="s">
         <v>442</v>
       </c>
-      <c r="B297" s="3" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>1590</v>
+      <c r="B297" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>448</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>443</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>453</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>455</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>457</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>454</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>456</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>447</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1530</v>
       </c>
     </row>
   </sheetData>
@@ -24926,12 +25381,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24941,365 +25396,365 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1489</v>
+        <v>1531</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1490</v>
+        <v>1532</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>865</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1491</v>
+        <v>1533</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1492</v>
+        <v>1534</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1493</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1494</v>
+        <v>1536</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1495</v>
+        <v>1537</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1496</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1497</v>
+        <v>1539</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1498</v>
+        <v>1540</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1499</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1500</v>
+        <v>1542</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1501</v>
+        <v>1543</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1502</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1503</v>
+        <v>1545</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1504</v>
+        <v>1546</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1505</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1506</v>
+        <v>1548</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1507</v>
+        <v>1549</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1508</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1509</v>
+        <v>1551</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1510</v>
+        <v>1552</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1511</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>1512</v>
+        <v>1554</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1513</v>
+        <v>1555</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1514</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>1515</v>
+        <v>1557</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1516</v>
+        <v>1558</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1517</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>1518</v>
+        <v>1560</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1519</v>
+        <v>1561</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1520</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>1521</v>
+        <v>1563</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1522</v>
+        <v>1564</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1523</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>1524</v>
+        <v>1566</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1525</v>
+        <v>1567</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1526</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>1527</v>
+        <v>1569</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1286</v>
+        <v>1307</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1528</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>1529</v>
+        <v>1571</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1530</v>
+        <v>1572</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1531</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1532</v>
+        <v>1574</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1533</v>
+        <v>1575</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1534</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>1535</v>
+        <v>1577</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1536</v>
+        <v>1578</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1537</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>1538</v>
+        <v>1580</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1539</v>
+        <v>1581</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1540</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1541</v>
+        <v>1583</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1542</v>
+        <v>1584</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1543</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>1544</v>
+        <v>1586</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1545</v>
+        <v>1587</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1546</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>1547</v>
+        <v>1589</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1548</v>
+        <v>1590</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1549</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>1550</v>
+        <v>1592</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1551</v>
+        <v>1593</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1552</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>1553</v>
+        <v>1595</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1554</v>
+        <v>1596</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1555</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>1556</v>
+        <v>1598</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1557</v>
+        <v>1599</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1558</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>1559</v>
+        <v>1601</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1560</v>
+        <v>1602</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1561</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>1562</v>
+        <v>1604</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1563</v>
+        <v>1605</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1564</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1565</v>
+        <v>1607</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1566</v>
+        <v>1608</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1567</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>1568</v>
+        <v>1610</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1569</v>
+        <v>1611</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1570</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>1571</v>
+        <v>1613</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1572</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>1573</v>
+        <v>1615</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1574</v>
+        <v>1616</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1575</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>1576</v>
+        <v>1618</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1577</v>
+        <v>1619</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1578</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1579</v>
+        <v>1621</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1580</v>
+        <v>1622</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1581</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -25307,10 +25762,10 @@
         <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>866</v>
+        <v>888</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>867</v>
+        <v>889</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -25318,10 +25773,10 @@
         <v>141</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>868</v>
+        <v>890</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -25329,10 +25784,10 @@
         <v>193</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>870</v>
+        <v>892</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>871</v>
+        <v>893</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -25340,10 +25795,10 @@
         <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>872</v>
+        <v>894</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>873</v>
+        <v>895</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -25351,10 +25806,10 @@
         <v>172</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>874</v>
+        <v>896</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -25362,10 +25817,10 @@
         <v>305</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>876</v>
+        <v>898</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>877</v>
+        <v>899</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -25373,10 +25828,10 @@
         <v>235</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>879</v>
+        <v>901</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -25384,54 +25839,71 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>880</v>
+        <v>902</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>881</v>
+        <v>903</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>1582</v>
+        <v>1624</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1583</v>
+        <v>1625</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1584</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>1585</v>
+        <v>1627</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1586</v>
+        <v>1628</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1587</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>1588</v>
+        <v>1630</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1588</v>
+        <v>1630</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1588</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
